--- a/Assets/StarryNight/Tables/MapDataTable.xlsx
+++ b/Assets/StarryNight/Tables/MapDataTable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1500" windowWidth="21015" windowHeight="15900"/>
@@ -435,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,7 +446,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
